--- a/resources/data-imports/Weapons/specialty_weapons.xlsx
+++ b/resources/data-imports/Weapons/specialty_weapons.xlsx
@@ -1175,8 +1175,8 @@
   </sheetPr>
   <dimension ref="A1:BX1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H99" activeCellId="0" sqref="H99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3277,9 +3277,6 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C16" s="1" t="s">
         <v>113</v>
       </c>
@@ -3408,9 +3405,6 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>680</v>
-      </c>
       <c r="C17" s="1" t="s">
         <v>116</v>
       </c>
@@ -3539,9 +3533,6 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>681</v>
-      </c>
       <c r="C18" s="1" t="s">
         <v>118</v>
       </c>
@@ -3670,9 +3661,6 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C19" s="1" t="s">
         <v>120</v>
       </c>
@@ -3801,9 +3789,6 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C20" s="1" t="s">
         <v>122</v>
       </c>
@@ -3932,9 +3917,6 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C21" s="1" t="s">
         <v>124</v>
       </c>
@@ -4063,9 +4045,6 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C22" s="1" t="s">
         <v>126</v>
       </c>
@@ -4194,9 +4173,6 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C23" s="1" t="s">
         <v>128</v>
       </c>
@@ -4325,9 +4301,6 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>680</v>
-      </c>
       <c r="C24" s="1" t="s">
         <v>131</v>
       </c>
@@ -4456,9 +4429,6 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>681</v>
-      </c>
       <c r="C25" s="1" t="s">
         <v>133</v>
       </c>
@@ -4587,9 +4557,6 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C26" s="1" t="s">
         <v>135</v>
       </c>
@@ -4718,9 +4685,6 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C27" s="1" t="s">
         <v>137</v>
       </c>
@@ -4849,9 +4813,6 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C28" s="1" t="s">
         <v>139</v>
       </c>
@@ -4980,9 +4941,6 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C29" s="1" t="s">
         <v>141</v>
       </c>
@@ -5111,9 +5069,6 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C30" s="1" t="s">
         <v>143</v>
       </c>
@@ -5242,9 +5197,6 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>680</v>
-      </c>
       <c r="C31" s="1" t="s">
         <v>146</v>
       </c>
@@ -5373,9 +5325,6 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>681</v>
-      </c>
       <c r="C32" s="1" t="s">
         <v>148</v>
       </c>
@@ -5504,9 +5453,6 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C33" s="1" t="s">
         <v>150</v>
       </c>
@@ -5635,9 +5581,6 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C34" s="1" t="s">
         <v>152</v>
       </c>
@@ -5766,9 +5709,6 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C35" s="1" t="s">
         <v>154</v>
       </c>
@@ -5897,9 +5837,6 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C36" s="1" t="s">
         <v>156</v>
       </c>
@@ -6028,9 +5965,6 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C37" s="1" t="s">
         <v>158</v>
       </c>
@@ -6159,9 +6093,6 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>680</v>
-      </c>
       <c r="C38" s="1" t="s">
         <v>161</v>
       </c>
@@ -6290,9 +6221,6 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>681</v>
-      </c>
       <c r="C39" s="1" t="s">
         <v>163</v>
       </c>
@@ -6421,9 +6349,6 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C40" s="1" t="s">
         <v>165</v>
       </c>
@@ -6552,9 +6477,6 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C41" s="1" t="s">
         <v>167</v>
       </c>
@@ -6683,9 +6605,6 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C42" s="1" t="s">
         <v>169</v>
       </c>
@@ -6814,9 +6733,6 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>679</v>
-      </c>
       <c r="C43" s="1" t="s">
         <v>171</v>
       </c>
@@ -6945,9 +6861,6 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>687</v>
-      </c>
       <c r="C44" s="1" t="s">
         <v>173</v>
       </c>
@@ -7064,9 +6977,6 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>688</v>
-      </c>
       <c r="C45" s="1" t="s">
         <v>176</v>
       </c>
@@ -7183,9 +7093,6 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>689</v>
-      </c>
       <c r="C46" s="1" t="s">
         <v>178</v>
       </c>
@@ -7302,9 +7209,6 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>687</v>
-      </c>
       <c r="C47" s="1" t="s">
         <v>180</v>
       </c>
@@ -7421,9 +7325,6 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>687</v>
-      </c>
       <c r="C48" s="1" t="s">
         <v>182</v>
       </c>
@@ -7540,9 +7441,6 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>687</v>
-      </c>
       <c r="C49" s="1" t="s">
         <v>184</v>
       </c>
@@ -7659,9 +7557,6 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>687</v>
-      </c>
       <c r="C50" s="1" t="s">
         <v>186</v>
       </c>
@@ -7778,9 +7673,6 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>687</v>
-      </c>
       <c r="C51" s="1" t="s">
         <v>188</v>
       </c>
@@ -7900,9 +7792,6 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>685</v>
-      </c>
       <c r="C52" s="1" t="s">
         <v>191</v>
       </c>
@@ -8022,9 +7911,6 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>686</v>
-      </c>
       <c r="C53" s="1" t="s">
         <v>193</v>
       </c>
@@ -8144,9 +8030,6 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>686</v>
-      </c>
       <c r="C54" s="1" t="s">
         <v>195</v>
       </c>
@@ -8266,9 +8149,6 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>686</v>
-      </c>
       <c r="C55" s="1" t="s">
         <v>197</v>
       </c>
@@ -8388,9 +8268,6 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>686</v>
-      </c>
       <c r="C56" s="1" t="s">
         <v>199</v>
       </c>
@@ -8510,9 +8387,6 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>686</v>
-      </c>
       <c r="C57" s="1" t="s">
         <v>201</v>
       </c>
@@ -10379,9 +10253,6 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
-        <v>694</v>
-      </c>
       <c r="C72" s="1" t="s">
         <v>226</v>
       </c>
@@ -10498,9 +10369,6 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
-        <v>695</v>
-      </c>
       <c r="C73" s="1" t="s">
         <v>229</v>
       </c>
@@ -10617,9 +10485,6 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
-        <v>696</v>
-      </c>
       <c r="C74" s="1" t="s">
         <v>231</v>
       </c>
@@ -10736,9 +10601,6 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
-        <v>694</v>
-      </c>
       <c r="C75" s="1" t="s">
         <v>233</v>
       </c>
@@ -10855,9 +10717,6 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <v>694</v>
-      </c>
       <c r="C76" s="1" t="s">
         <v>235</v>
       </c>
@@ -10974,9 +10833,6 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
-        <v>694</v>
-      </c>
       <c r="C77" s="1" t="s">
         <v>237</v>
       </c>
@@ -11093,9 +10949,6 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
-        <v>694</v>
-      </c>
       <c r="C78" s="1" t="s">
         <v>239</v>
       </c>
@@ -11212,9 +11065,6 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
-        <v>691</v>
-      </c>
       <c r="C79" s="1" t="s">
         <v>241</v>
       </c>
@@ -11331,9 +11181,6 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
-        <v>692</v>
-      </c>
       <c r="C80" s="1" t="s">
         <v>244</v>
       </c>
@@ -11450,9 +11297,6 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
-        <v>693</v>
-      </c>
       <c r="C81" s="1" t="s">
         <v>246</v>
       </c>
@@ -11569,9 +11413,6 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
-        <v>691</v>
-      </c>
       <c r="C82" s="1" t="s">
         <v>248</v>
       </c>
@@ -11688,9 +11529,6 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>691</v>
-      </c>
       <c r="C83" s="1" t="s">
         <v>250</v>
       </c>
@@ -11807,9 +11645,6 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
-        <v>691</v>
-      </c>
       <c r="C84" s="1" t="s">
         <v>252</v>
       </c>
@@ -11926,9 +11761,6 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
-        <v>691</v>
-      </c>
       <c r="C85" s="1" t="s">
         <v>254</v>
       </c>
@@ -12045,9 +11877,6 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
-        <v>682</v>
-      </c>
       <c r="C86" s="1" t="s">
         <v>256</v>
       </c>
@@ -12164,9 +11993,6 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
-        <v>683</v>
-      </c>
       <c r="C87" s="1" t="s">
         <v>259</v>
       </c>
@@ -12283,9 +12109,6 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
-        <v>684</v>
-      </c>
       <c r="C88" s="1" t="s">
         <v>261</v>
       </c>
@@ -12402,9 +12225,6 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
-        <v>682</v>
-      </c>
       <c r="C89" s="1" t="s">
         <v>263</v>
       </c>
@@ -12521,9 +12341,6 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
-        <v>682</v>
-      </c>
       <c r="C90" s="1" t="s">
         <v>265</v>
       </c>
@@ -12640,9 +12457,6 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
-        <v>682</v>
-      </c>
       <c r="C91" s="1" t="s">
         <v>267</v>
       </c>
@@ -12759,9 +12573,6 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
-        <v>682</v>
-      </c>
       <c r="C92" s="1" t="s">
         <v>269</v>
       </c>

--- a/resources/data-imports/Weapons/specialty_weapons.xlsx
+++ b/resources/data-imports/Weapons/specialty_weapons.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="287">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -878,6 +878,9 @@
   </si>
   <si>
     <t xml:space="preserve">Once wielded by a fallen priest, it carries forbidden magic that defies faith itself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labyrinth Cloth</t>
   </si>
 </sst>
 </file>
@@ -1175,11 +1178,11 @@
   </sheetPr>
   <dimension ref="A1:BX1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A100" activeCellId="0" sqref="A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
@@ -13059,6 +13062,1658 @@
         <v>0</v>
       </c>
     </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM100" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX100" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V101" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Z101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM101" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX101" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Z102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM102" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX102" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V103" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Z103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM103" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX103" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V104" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W104" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM104" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX104" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="U105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM105" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX105" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X106" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM106" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX106" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J107" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM107" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX107" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="U108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM108" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX108" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="V109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC109" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM109" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX109" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V110" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y110" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Z110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM110" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX110" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T111" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM111" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX111" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X112" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM112" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX112" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z113" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX113" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
